--- a/ExtractSREO/Standardized-2022 Lawrence S Connor REO Schedule.xlsx
+++ b/ExtractSREO/Standardized-2022 Lawrence S Connor REO Schedule.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -566,11 +566,7 @@
           <t>City</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>State</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
@@ -610,36 +606,20 @@
           <t>NOI</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>DSCR</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
           <t>Market Value</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>LTV</t>
-        </is>
-      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr">
         <is>
           <t>Amort Start Date</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Rate Type</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>All In Rate</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
     </row>
@@ -659,11 +639,7 @@
           <t>Atlanta</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GA</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
@@ -703,36 +679,20 @@
           <t xml:space="preserve">$3,694,287 </t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1.1</t>
-        </is>
-      </c>
+      <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr">
         <is>
           <t xml:space="preserve">$116,000,000 </t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>45.11%</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t>3/1/2021</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
     </row>
@@ -752,11 +712,7 @@
           <t>Denver</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
@@ -796,36 +752,20 @@
           <t xml:space="preserve">$4,639,849 </t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>1.65</t>
-        </is>
-      </c>
+      <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
           <t xml:space="preserve">$162,000,000 </t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>54.63%</t>
-        </is>
-      </c>
+      <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
     </row>
@@ -845,11 +785,7 @@
           <t>Irving</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
@@ -889,36 +825,20 @@
           <t xml:space="preserve">$1,436,981 </t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr">
         <is>
           <t xml:space="preserve">$64,000,000 </t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>53.78%</t>
-        </is>
-      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr">
         <is>
           <t>12/1/2021</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
     </row>
@@ -938,11 +858,7 @@
           <t>Cincinnati</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
@@ -982,36 +898,20 @@
           <t xml:space="preserve">$4,690,059 </t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>3.72</t>
-        </is>
-      </c>
+      <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr">
         <is>
           <t xml:space="preserve">$75,700,000 </t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>66.58%</t>
-        </is>
-      </c>
+      <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr">
         <is>
           <t>1/1/2024</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$13,557,600 </t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
     </row>
@@ -1031,11 +931,7 @@
           <t>Miamisburg</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
@@ -1075,36 +971,20 @@
           <t xml:space="preserve">$2,911,769 </t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
+      <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr">
         <is>
           <t xml:space="preserve">$42,500,000 </t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>69.61%</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr">
         <is>
           <t>8/1/2016</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
     </row>
@@ -1124,11 +1004,7 @@
           <t xml:space="preserve">Austin </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
@@ -1168,36 +1044,20 @@
           <t xml:space="preserve">$3,353,456 </t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
+      <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
           <t xml:space="preserve">$94,500,000 </t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>68.78%</t>
-        </is>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
     </row>
@@ -1217,11 +1077,7 @@
           <t>Clearwater</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
@@ -1261,36 +1117,20 @@
           <t xml:space="preserve">$5,284,931 </t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr">
         <is>
           <t xml:space="preserve">$136,000,000 </t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>76.25%</t>
-        </is>
-      </c>
+      <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
     </row>
@@ -1310,11 +1150,7 @@
           <t>Woodbury</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>MN</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
@@ -1354,36 +1190,20 @@
           <t xml:space="preserve">$6,448,393 </t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
+      <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr">
         <is>
           <t xml:space="preserve">$167,850,000 </t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>51.33%</t>
-        </is>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr">
         <is>
           <t>9/1/2022</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
     </row>
@@ -1403,11 +1223,7 @@
           <t>Murfreesboro</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
@@ -1447,36 +1263,20 @@
           <t xml:space="preserve">$2,671,919 </t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>2.56</t>
-        </is>
-      </c>
+      <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr">
         <is>
           <t xml:space="preserve">$59,000,000 </t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>70.22%</t>
-        </is>
-      </c>
+      <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr">
         <is>
           <t>2/1/2024</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
     </row>
@@ -1496,11 +1296,7 @@
           <t>San Antonio</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
@@ -1540,36 +1336,20 @@
           <t xml:space="preserve">$4,011,332 </t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
+      <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr">
         <is>
           <t xml:space="preserve">$81,650,000 </t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>81.12%</t>
-        </is>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
     </row>
@@ -1589,11 +1369,7 @@
           <t>Columbus</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
@@ -1633,36 +1409,20 @@
           <t xml:space="preserve">$3,640,004 </t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>2.88</t>
-        </is>
-      </c>
+      <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
           <t xml:space="preserve">$71,500,000 </t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>70.77%</t>
-        </is>
-      </c>
+      <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr">
         <is>
           <t>2/1/2024</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$12,650,000 </t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
     </row>
@@ -1682,11 +1442,7 @@
           <t>Zionsville</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>IN</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
@@ -1726,36 +1482,20 @@
           <t xml:space="preserve">$2,459,518 </t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>1.6</t>
-        </is>
-      </c>
+      <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr">
         <is>
           <t xml:space="preserve">$60,000,000 </t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>70.41%</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr">
         <is>
           <t>4/1/2024</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
     </row>
@@ -1775,11 +1515,7 @@
           <t>Dayton</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
@@ -1819,36 +1555,20 @@
           <t xml:space="preserve">$2,136,789 </t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
+      <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr">
         <is>
           <t xml:space="preserve">$38,000,000 </t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>52.63%</t>
-        </is>
-      </c>
+      <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr">
         <is>
           <t>1/1/2024</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$10,000,000 </t>
-        </is>
-      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
     </row>
@@ -1868,11 +1588,7 @@
           <t>Dublin</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
@@ -1912,36 +1628,20 @@
           <t xml:space="preserve">$4,408,847 </t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>2.9</t>
-        </is>
-      </c>
+      <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr">
         <is>
           <t xml:space="preserve">$91,200,000 </t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>64.58%</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr">
         <is>
           <t>2/1/2026</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
     </row>
@@ -1961,11 +1661,7 @@
           <t>Charlotte</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
@@ -2005,36 +1701,20 @@
           <t xml:space="preserve">$4,898,525 </t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
+      <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
           <t xml:space="preserve">$115,000,000 </t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>67.57%</t>
-        </is>
-      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
     </row>
@@ -2054,11 +1734,7 @@
           <t>Nashville</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
@@ -2098,36 +1774,20 @@
           <t xml:space="preserve">$6,223,948 </t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
+      <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
           <t xml:space="preserve">$156,000,000 </t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>39.00%</t>
-        </is>
-      </c>
+      <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
           <t>6/1/2017</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
     </row>
@@ -2147,11 +1807,7 @@
           <t>Columbus</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
@@ -2191,36 +1847,20 @@
           <t xml:space="preserve">$5,655,792 </t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
+      <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
           <t xml:space="preserve">$107,000,000 </t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>78.73%</t>
-        </is>
-      </c>
+      <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr">
         <is>
           <t>2/1/2024</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
     </row>
@@ -2240,11 +1880,7 @@
           <t>Saint Louis Park</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>MN</t>
-        </is>
-      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
@@ -2284,36 +1920,20 @@
           <t xml:space="preserve">$7,066,674 </t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
+      <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
           <t xml:space="preserve">$172,700,000 </t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>45.66%</t>
-        </is>
-      </c>
+      <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr">
         <is>
           <t>5/1/2021</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
     </row>
@@ -2333,11 +1953,7 @@
           <t>Fort Worth</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
@@ -2377,36 +1993,20 @@
           <t xml:space="preserve">$2,897,869 </t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
+      <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
           <t xml:space="preserve">$84,000,000 </t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>57.01%</t>
-        </is>
-      </c>
+      <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$23,943,750 </t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
     </row>
@@ -2426,11 +2026,7 @@
           <t>Denver</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
@@ -2470,36 +2066,20 @@
           <t xml:space="preserve">$4,272,236 </t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
+      <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
           <t xml:space="preserve">$105,000,000 </t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>48.99%</t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr">
         <is>
           <t>8/1/2022</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
     </row>
@@ -2519,11 +2099,7 @@
           <t xml:space="preserve">Charlotte </t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>NC</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
@@ -2563,36 +2139,20 @@
           <t xml:space="preserve">$3,058,949 </t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>2.41</t>
-        </is>
-      </c>
+      <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
           <t xml:space="preserve">$71,500,000 </t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>70.63%</t>
-        </is>
-      </c>
+      <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr">
         <is>
           <t>2/1/2024</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
     </row>
@@ -2612,11 +2172,7 @@
           <t>Louisville</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
@@ -2656,36 +2212,20 @@
           <t xml:space="preserve">$2,401,232 </t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>2.46</t>
-        </is>
-      </c>
+      <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
           <t xml:space="preserve">$62,400,000 </t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>58.05%</t>
-        </is>
-      </c>
+      <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr">
         <is>
           <t>2/1/2026</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
     </row>
@@ -2705,11 +2245,7 @@
           <t xml:space="preserve">Miamisburg </t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
@@ -2749,36 +2285,20 @@
           <t xml:space="preserve">$3,209,049 </t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>4.03</t>
-        </is>
-      </c>
+      <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
           <t xml:space="preserve">$50,000,000 </t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>74.00%</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr">
         <is>
           <t>1/1/2025</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
     </row>
@@ -2798,11 +2318,7 @@
           <t>Dallas</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
@@ -2842,36 +2358,20 @@
           <t xml:space="preserve">$3,165,600 </t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
+      <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
           <t xml:space="preserve">$110,000,000 </t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>50.32%</t>
-        </is>
-      </c>
+      <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr">
         <is>
           <t>7/1/2025</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
     </row>
@@ -2891,11 +2391,7 @@
           <t>Cincinnati</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
@@ -2935,36 +2431,20 @@
           <t xml:space="preserve">$3,633,419 </t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
+      <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
           <t xml:space="preserve">$64,500,000 </t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>83.10%</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr">
         <is>
           <t>2/1/2024</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
     </row>
@@ -2984,11 +2464,7 @@
           <t>Tampa</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>FL</t>
-        </is>
-      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
@@ -3028,36 +2504,20 @@
           <t xml:space="preserve">$3,543,304 </t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
+      <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
           <t xml:space="preserve">$85,650,000 </t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>77.64%</t>
-        </is>
-      </c>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
     </row>
@@ -3077,11 +2537,7 @@
           <t>Denver</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
@@ -3121,36 +2577,20 @@
           <t xml:space="preserve">$3,387,963 </t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
           <t xml:space="preserve">$111,000,000 </t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>62.39%</t>
-        </is>
-      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
     </row>
@@ -3170,11 +2610,7 @@
           <t>Louisville</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>KY</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
@@ -3214,36 +2650,20 @@
           <t xml:space="preserve">$5,096,833 </t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
+      <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
           <t xml:space="preserve">$120,000,000 </t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>44.96%</t>
-        </is>
-      </c>
+      <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr">
         <is>
           <t>7/1/2018</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
     </row>
@@ -3263,11 +2683,7 @@
           <t>Plymouth</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
@@ -3307,36 +2723,20 @@
           <t xml:space="preserve">$4,051,236 </t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
+      <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
           <t xml:space="preserve">$85,500,000 </t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>79.30%</t>
-        </is>
-      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
     </row>
@@ -3356,11 +2756,7 @@
           <t>San Antonio</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
@@ -3400,36 +2796,20 @@
           <t xml:space="preserve">$2,812,360 </t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>2.64</t>
-        </is>
-      </c>
+      <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr">
         <is>
           <t xml:space="preserve">$58,400,000 </t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>66.44%</t>
-        </is>
-      </c>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
           <t>6/1/2023</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$10,363,480 </t>
-        </is>
-      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
     </row>
@@ -3449,11 +2829,7 @@
           <t>Fort Worth</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
@@ -3493,36 +2869,20 @@
           <t xml:space="preserve">$2,929,789 </t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
+      <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr">
         <is>
           <t xml:space="preserve">$78,000,000 </t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>68.14%</t>
-        </is>
-      </c>
+      <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
     </row>
@@ -3542,11 +2902,7 @@
           <t>McKinney</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>TX</t>
-        </is>
-      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
@@ -3586,36 +2942,20 @@
           <t xml:space="preserve">$5,696,052 </t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>2.3</t>
-        </is>
-      </c>
+      <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr">
         <is>
           <t xml:space="preserve">$144,000,000 </t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>61.77%</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>1/1/2025</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
     </row>
@@ -3635,11 +2975,7 @@
           <t>Arlington Heights</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
@@ -3679,36 +3015,20 @@
           <t xml:space="preserve">$6,483,632 </t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>1.4</t>
-        </is>
-      </c>
+      <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
           <t xml:space="preserve">$155,000,000 </t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>49.95%</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr">
         <is>
           <t>4/1/2021</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
-        <is>
-          <t>Fixed</t>
-        </is>
-      </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
     </row>
@@ -3728,11 +3048,7 @@
           <t>Northbrook</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
@@ -3772,36 +3088,20 @@
           <t xml:space="preserve">$4,463,577 </t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>1.64</t>
-        </is>
-      </c>
+      <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
           <t xml:space="preserve">$115,000,000 </t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>50.08%</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
           <t>10/1/2020</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
     </row>
@@ -3821,11 +3121,7 @@
           <t>Broomfield</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>CO</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
@@ -3865,36 +3161,20 @@
           <t xml:space="preserve">$6,859,449 </t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
+      <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
           <t xml:space="preserve">$186,000,000 </t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>67.10%</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr">
         <is>
           <t>N\A</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
     </row>
@@ -3914,11 +3194,7 @@
           <t>Cincinnati</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>OH</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
@@ -3958,36 +3234,20 @@
           <t xml:space="preserve">$3,397,830 </t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr">
         <is>
           <t xml:space="preserve">$57,500,000 </t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>75.13%</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr">
         <is>
           <t>9/1/2026</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
     </row>
@@ -4007,11 +3267,7 @@
           <t>Murfreesboro</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>TN</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
@@ -4051,36 +3307,20 @@
           <t xml:space="preserve">$2,188,736 </t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
+      <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr">
         <is>
           <t xml:space="preserve">$52,000,000 </t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>62.47%</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr">
         <is>
           <t>1/1/2024</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
     </row>
@@ -4100,11 +3340,7 @@
           <t>Wheaton</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
@@ -4144,36 +3380,20 @@
           <t xml:space="preserve">$2,935,028 </t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
+      <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr">
         <is>
           <t xml:space="preserve">$46,500,000 </t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>80.69%</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
           <t>2/1/2024</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
     </row>
@@ -4193,11 +3413,7 @@
           <t>Wheaton</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
@@ -4237,36 +3453,20 @@
           <t xml:space="preserve">$3,929,299 </t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
+      <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
           <t xml:space="preserve">$100,000,000 </t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>47.46%</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr">
         <is>
           <t>12/1/2020</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
     </row>

--- a/ExtractSREO/Standardized-2022 Lawrence S Connor REO Schedule.xlsx
+++ b/ExtractSREO/Standardized-2022 Lawrence S Connor REO Schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W41"/>
+  <dimension ref="A1:W40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4177,99 +4177,6 @@
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Wheaton 121</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>121 N. Cross St.</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Wheaton</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>307</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Freddie Mac</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>11/1/2025</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$47,464,089 </t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,393,301 </t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$3,929,299 </t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$100,000,000 </t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>47.46%</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>12/1/2020</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>Floating</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">$0 </t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
